--- a/electronics/rev3/BOM.xlsx
+++ b/electronics/rev3/BOM.xlsx
@@ -448,7 +448,7 @@
     <t xml:space="preserve">Step-up Booster 20V</t>
   </si>
   <si>
-    <t xml:space="preserve">CR1</t>
+    <t xml:space="preserve">D4</t>
   </si>
   <si>
     <t xml:space="preserve">ONSEMI</t>
@@ -676,8 +676,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
